--- a/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4685002906590796</v>
+        <v>0.4685002906597049</v>
       </c>
       <c r="D2">
-        <v>1.614401963720582</v>
+        <v>1.614401963720468</v>
       </c>
       <c r="E2">
-        <v>0.9029684836150835</v>
+        <v>0.9029684836150622</v>
       </c>
       <c r="F2">
-        <v>21.17333409748557</v>
+        <v>21.17333409748545</v>
       </c>
       <c r="G2">
-        <v>19.28371517179428</v>
+        <v>19.28371517179414</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4221750626946914</v>
+        <v>0.4221750626947554</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3522781520236009</v>
+        <v>0.3522781520241125</v>
       </c>
       <c r="D3">
-        <v>1.203441434279682</v>
+        <v>1.203441434279256</v>
       </c>
       <c r="E3">
-        <v>0.6704661036615391</v>
+        <v>0.6704661036615462</v>
       </c>
       <c r="F3">
-        <v>15.97242618836242</v>
+        <v>15.97242618836231</v>
       </c>
       <c r="G3">
-        <v>14.53104948463269</v>
+        <v>14.53104948463263</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3122291807342421</v>
+        <v>0.3122291807342847</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3003240853578717</v>
+        <v>0.3003240853584117</v>
       </c>
       <c r="D4">
-        <v>1.021874968660029</v>
+        <v>1.021874968659887</v>
       </c>
       <c r="E4">
-        <v>0.5683491803618566</v>
+        <v>0.5683491803618423</v>
       </c>
       <c r="F4">
-        <v>13.63479638763437</v>
+        <v>13.63479638763408</v>
       </c>
       <c r="G4">
-        <v>12.39824202077605</v>
+        <v>12.39824202077574</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2642144286156807</v>
+        <v>0.2642144286156665</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2814986278934839</v>
+        <v>0.2814986278934271</v>
       </c>
       <c r="D5">
         <v>0.9563577518845534</v>
       </c>
       <c r="E5">
-        <v>0.5315787485536489</v>
+        <v>0.5315787485536347</v>
       </c>
       <c r="F5">
-        <v>12.78595745720003</v>
+        <v>12.7859574572002</v>
       </c>
       <c r="G5">
-        <v>11.62421988020978</v>
+        <v>11.62421988020995</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2469605083132969</v>
+        <v>0.246960508313272</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2784798333935186</v>
+        <v>0.2784798333939449</v>
       </c>
       <c r="D6">
-        <v>0.945864141452887</v>
+        <v>0.9458641414528586</v>
       </c>
       <c r="E6">
-        <v>0.5256930238609741</v>
+        <v>0.5256930238608675</v>
       </c>
       <c r="F6">
         <v>12.64975271401954</v>
       </c>
       <c r="G6">
-        <v>11.50004089494445</v>
+        <v>11.50004089494436</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2442003640780364</v>
+        <v>0.2442003640779902</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3000623931536808</v>
+        <v>0.3000623931546045</v>
       </c>
       <c r="D7">
-        <v>1.020963271128466</v>
+        <v>1.020963271128608</v>
       </c>
       <c r="E7">
-        <v>0.5678372329066477</v>
+        <v>0.5678372329067045</v>
       </c>
       <c r="F7">
-        <v>13.62300317512256</v>
+        <v>13.62300317512273</v>
       </c>
       <c r="G7">
-        <v>12.38748671783031</v>
+        <v>12.38748671783051</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2639740826536681</v>
+        <v>0.2639740826536752</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D8">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E8">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F8">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G8">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D9">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E9">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F9">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G9">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D10">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E10">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F10">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G10">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D11">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E11">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F11">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G11">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D12">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E12">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F12">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G12">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D13">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E13">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F13">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G13">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D14">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E14">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F14">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G14">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D15">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E15">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F15">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G15">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D16">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E16">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F16">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G16">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D17">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E17">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F17">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G17">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D18">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E18">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F18">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G18">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D19">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E19">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F19">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G19">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D20">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E20">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F20">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G20">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D21">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E21">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F21">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G21">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D22">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E22">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F22">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G22">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D23">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E23">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F23">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G23">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D24">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E24">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F24">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G24">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4215782774728609</v>
+        <v>0.4215782774731736</v>
       </c>
       <c r="D25">
-        <v>1.447597676844595</v>
+        <v>1.447597676844509</v>
       </c>
       <c r="E25">
-        <v>0.8083441980378794</v>
+        <v>0.8083441980378581</v>
       </c>
       <c r="F25">
-        <v>19.07857181128026</v>
+        <v>19.07857181127991</v>
       </c>
       <c r="G25">
-        <v>17.36812733688006</v>
+        <v>17.36812733687978</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3773142428434682</v>
+        <v>0.3773142428434539</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4685002906597049</v>
+        <v>0.4685002906590796</v>
       </c>
       <c r="D2">
-        <v>1.614401963720468</v>
+        <v>1.614401963720582</v>
       </c>
       <c r="E2">
-        <v>0.9029684836150622</v>
+        <v>0.9029684836150835</v>
       </c>
       <c r="F2">
-        <v>21.17333409748545</v>
+        <v>21.17333409748557</v>
       </c>
       <c r="G2">
-        <v>19.28371517179414</v>
+        <v>19.28371517179428</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4221750626947554</v>
+        <v>0.4221750626946914</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3522781520241125</v>
+        <v>0.3522781520236009</v>
       </c>
       <c r="D3">
-        <v>1.203441434279256</v>
+        <v>1.203441434279682</v>
       </c>
       <c r="E3">
-        <v>0.6704661036615462</v>
+        <v>0.6704661036615391</v>
       </c>
       <c r="F3">
-        <v>15.97242618836231</v>
+        <v>15.97242618836242</v>
       </c>
       <c r="G3">
-        <v>14.53104948463263</v>
+        <v>14.53104948463269</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3122291807342847</v>
+        <v>0.3122291807342421</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3003240853584117</v>
+        <v>0.3003240853578717</v>
       </c>
       <c r="D4">
-        <v>1.021874968659887</v>
+        <v>1.021874968660029</v>
       </c>
       <c r="E4">
-        <v>0.5683491803618423</v>
+        <v>0.5683491803618566</v>
       </c>
       <c r="F4">
-        <v>13.63479638763408</v>
+        <v>13.63479638763437</v>
       </c>
       <c r="G4">
-        <v>12.39824202077574</v>
+        <v>12.39824202077605</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2642144286156665</v>
+        <v>0.2642144286156807</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2814986278934271</v>
+        <v>0.2814986278934839</v>
       </c>
       <c r="D5">
         <v>0.9563577518845534</v>
       </c>
       <c r="E5">
-        <v>0.5315787485536347</v>
+        <v>0.5315787485536489</v>
       </c>
       <c r="F5">
-        <v>12.7859574572002</v>
+        <v>12.78595745720003</v>
       </c>
       <c r="G5">
-        <v>11.62421988020995</v>
+        <v>11.62421988020978</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.246960508313272</v>
+        <v>0.2469605083132969</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2784798333939449</v>
+        <v>0.2784798333935186</v>
       </c>
       <c r="D6">
-        <v>0.9458641414528586</v>
+        <v>0.945864141452887</v>
       </c>
       <c r="E6">
-        <v>0.5256930238608675</v>
+        <v>0.5256930238609741</v>
       </c>
       <c r="F6">
         <v>12.64975271401954</v>
       </c>
       <c r="G6">
-        <v>11.50004089494436</v>
+        <v>11.50004089494445</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2442003640779902</v>
+        <v>0.2442003640780364</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3000623931546045</v>
+        <v>0.3000623931536808</v>
       </c>
       <c r="D7">
-        <v>1.020963271128608</v>
+        <v>1.020963271128466</v>
       </c>
       <c r="E7">
-        <v>0.5678372329067045</v>
+        <v>0.5678372329066477</v>
       </c>
       <c r="F7">
-        <v>13.62300317512273</v>
+        <v>13.62300317512256</v>
       </c>
       <c r="G7">
-        <v>12.38748671783051</v>
+        <v>12.38748671783031</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2639740826536752</v>
+        <v>0.2639740826536681</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D8">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E8">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F8">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G8">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D9">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E9">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F9">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G9">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D10">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E10">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F10">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G10">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D11">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E11">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F11">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G11">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D12">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E12">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F12">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G12">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D13">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E13">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F13">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G13">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D14">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E14">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F14">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G14">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D15">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E15">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F15">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G15">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D16">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E16">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F16">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G16">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D17">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E17">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F17">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G17">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D18">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E18">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F18">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G18">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D19">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E19">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F19">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G19">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D20">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E20">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F20">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G20">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D21">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E21">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F21">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G21">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D22">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E22">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F22">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G22">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D23">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E23">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F23">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G23">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D24">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E24">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F24">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G24">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4215782774731736</v>
+        <v>0.4215782774728609</v>
       </c>
       <c r="D25">
-        <v>1.447597676844509</v>
+        <v>1.447597676844595</v>
       </c>
       <c r="E25">
-        <v>0.8083441980378581</v>
+        <v>0.8083441980378794</v>
       </c>
       <c r="F25">
-        <v>19.07857181127991</v>
+        <v>19.07857181128026</v>
       </c>
       <c r="G25">
-        <v>17.36812733687978</v>
+        <v>17.36812733688006</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3773142428434539</v>
+        <v>0.3773142428434682</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4685002906590796</v>
+        <v>0.4670854536994682</v>
       </c>
       <c r="D2">
-        <v>1.614401963720582</v>
+        <v>1.604212140709762</v>
       </c>
       <c r="E2">
-        <v>0.9029684836150835</v>
+        <v>0.9000641773112079</v>
       </c>
       <c r="F2">
-        <v>21.17333409748557</v>
+        <v>21.06536145909911</v>
       </c>
       <c r="G2">
-        <v>19.28371517179428</v>
+        <v>6.471625053747857</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.69943870007762</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,13 +442,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4221750626946914</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.4207907155795354</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,22 +459,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3522781520236009</v>
+        <v>0.3517379785666606</v>
       </c>
       <c r="D3">
-        <v>1.203441434279682</v>
+        <v>1.197713508179589</v>
       </c>
       <c r="E3">
-        <v>0.6704661036615391</v>
+        <v>0.6693844198922818</v>
       </c>
       <c r="F3">
-        <v>15.97242618836242</v>
+        <v>15.91412190858148</v>
       </c>
       <c r="G3">
-        <v>14.53104948463269</v>
+        <v>4.880857061801862</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.587594069755539</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,13 +483,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3122291807342421</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.3117177244068543</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,22 +500,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3003240853578717</v>
+        <v>0.2999803743274327</v>
       </c>
       <c r="D4">
-        <v>1.021874968660029</v>
+        <v>1.01742082396882</v>
       </c>
       <c r="E4">
-        <v>0.5683491803618566</v>
+        <v>0.5676668973549681</v>
       </c>
       <c r="F4">
-        <v>13.63479638763437</v>
+        <v>13.59021397326364</v>
       </c>
       <c r="G4">
-        <v>12.39824202077605</v>
+        <v>4.163577561291561</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.186664200527048</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,13 +524,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2642144286156807</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2638927693136708</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,22 +541,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2814986278934839</v>
+        <v>0.2812098101192788</v>
       </c>
       <c r="D5">
-        <v>0.9563577518845534</v>
+        <v>0.9523052555763911</v>
       </c>
       <c r="E5">
-        <v>0.5315787485536489</v>
+        <v>0.5310070114294945</v>
       </c>
       <c r="F5">
-        <v>12.78595745720003</v>
+        <v>12.74563648580215</v>
       </c>
       <c r="G5">
-        <v>11.62421988020978</v>
+        <v>3.902900859820164</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.67795901959866</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,13 +565,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2469605083132969</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2466912221529967</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,22 +582,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2784798333935186</v>
+        <v>0.2781991521672893</v>
       </c>
       <c r="D6">
-        <v>0.945864141452887</v>
+        <v>0.9418736126155238</v>
       </c>
       <c r="E6">
-        <v>0.5256930238609741</v>
+        <v>0.5251376269579637</v>
       </c>
       <c r="F6">
-        <v>12.64975271401954</v>
+        <v>12.61008604700493</v>
       </c>
       <c r="G6">
-        <v>11.50004089494445</v>
+        <v>3.861062530484361</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.596335971628918</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,13 +606,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2442003640780364</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2439388124716331</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,22 +623,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3000623931536808</v>
+        <v>0.2997194968719725</v>
       </c>
       <c r="D7">
-        <v>1.020963271128466</v>
+        <v>1.016514899251717</v>
       </c>
       <c r="E7">
-        <v>0.5678372329066477</v>
+        <v>0.567156594416133</v>
       </c>
       <c r="F7">
-        <v>13.62300317512256</v>
+        <v>13.57848225298216</v>
       </c>
       <c r="G7">
-        <v>12.38748671783031</v>
+        <v>4.15995664302028</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.179596376734366</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,13 +647,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2639740826536681</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2636532030430914</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D8">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E8">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F8">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G8">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,13 +688,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,22 +705,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D9">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E9">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F9">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G9">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,13 +729,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D10">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E10">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F10">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G10">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,13 +770,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,22 +787,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D11">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E11">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F11">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G11">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,13 +811,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,22 +828,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D12">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E12">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F12">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G12">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,13 +852,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,22 +869,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D13">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E13">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F13">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G13">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,13 +893,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,22 +910,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D14">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E14">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F14">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G14">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,13 +934,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,22 +951,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D15">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E15">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F15">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G15">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,13 +975,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,22 +992,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D16">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E16">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F16">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G16">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,13 +1016,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,22 +1033,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D17">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E17">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F17">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G17">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,13 +1057,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D18">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E18">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F18">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G18">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,13 +1098,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,22 +1115,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D19">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E19">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F19">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G19">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,13 +1139,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,22 +1156,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D20">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E20">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F20">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G20">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,13 +1180,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D21">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E21">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F21">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G21">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,13 +1221,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,22 +1238,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D22">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E22">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F22">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G22">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,13 +1262,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,22 +1279,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D23">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E23">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F23">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G23">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,13 +1303,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,22 +1320,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D24">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E24">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F24">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G24">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,13 +1344,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,22 +1361,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4215782774728609</v>
+        <v>0.4206211249023681</v>
       </c>
       <c r="D25">
-        <v>1.447597676844595</v>
+        <v>1.439597849080116</v>
       </c>
       <c r="E25">
-        <v>0.8083441980378794</v>
+        <v>0.8064006321851096</v>
       </c>
       <c r="F25">
-        <v>19.07857181128026</v>
+        <v>18.9952093295696</v>
       </c>
       <c r="G25">
-        <v>17.36812733688006</v>
+        <v>5.832122728495619</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.44774527493752</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3773142428434682</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.3763910622282793</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1536667046008802</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.051547447984575</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1189349028132085</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.783450340050223</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007403285053665339</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.244250877488696</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,122 +460,1088 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>8.317726353357386</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.132027693131235</v>
+      </c>
+      <c r="D3">
+        <v>0.05010176256896415</v>
+      </c>
+      <c r="E3">
+        <v>0.1068347623646986</v>
+      </c>
+      <c r="F3">
+        <v>2.436223334948536</v>
+      </c>
+      <c r="G3">
+        <v>0.0007493337050182004</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.2146217967985962</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>7.252290545184735</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.118999335436925</v>
+      </c>
+      <c r="D4">
+        <v>0.04927705683744676</v>
+      </c>
+      <c r="E4">
+        <v>0.09964483310762873</v>
+      </c>
+      <c r="F4">
+        <v>2.228689463387013</v>
+      </c>
+      <c r="G4">
+        <v>0.0007550011748379548</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.1969466096437529</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>6.615052516608444</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1137453792334071</v>
+      </c>
+      <c r="D5">
+        <v>0.04895588225535263</v>
+      </c>
+      <c r="E5">
+        <v>0.09676871941745802</v>
+      </c>
+      <c r="F5">
+        <v>2.145365766530588</v>
+      </c>
+      <c r="G5">
+        <v>0.0007573476403449062</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.1898581418072709</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>6.359091640758436</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.112876031711707</v>
+      </c>
+      <c r="D6">
+        <v>0.04890342579905393</v>
+      </c>
+      <c r="E6">
+        <v>0.09629421875828115</v>
+      </c>
+      <c r="F6">
+        <v>2.131600468351834</v>
+      </c>
+      <c r="G6">
+        <v>0.0007577395590098985</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.1886875797770813</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>6.316799277053917</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1189282673782657</v>
+      </c>
+      <c r="D7">
+        <v>0.04927266620302007</v>
+      </c>
+      <c r="E7">
+        <v>0.09960583486693508</v>
+      </c>
+      <c r="F7">
+        <v>2.227560898562956</v>
+      </c>
+      <c r="G7">
+        <v>0.0007550326678600163</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.1968505689377054</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>6.611586159904903</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1461458765658818</v>
+      </c>
+      <c r="D8">
+        <v>0.05103532214441131</v>
+      </c>
+      <c r="E8">
+        <v>0.1147089864080719</v>
+      </c>
+      <c r="F8">
+        <v>2.662438923806064</v>
+      </c>
+      <c r="G8">
+        <v>0.0007434061729535147</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.2339174572383058</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>7.946504003064376</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.2020599777680872</v>
+      </c>
+      <c r="D9">
+        <v>0.05503859071759365</v>
+      </c>
+      <c r="E9">
+        <v>0.1465536544179464</v>
+      </c>
+      <c r="F9">
+        <v>3.569182376989744</v>
+      </c>
+      <c r="G9">
+        <v>0.0007215939582256574</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.3115119314374368</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>10.72636972917485</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.24547574834952</v>
+      </c>
+      <c r="D10">
+        <v>0.0583883461082948</v>
+      </c>
+      <c r="E10">
+        <v>0.1718297920525131</v>
+      </c>
+      <c r="F10">
+        <v>4.282692687706174</v>
+      </c>
+      <c r="G10">
+        <v>0.0007059959473995384</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.3727995796777321</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>12.91194074184529</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.2659433538282485</v>
+      </c>
+      <c r="D11">
+        <v>0.06002091085174044</v>
+      </c>
+      <c r="E11">
+        <v>0.1838760230395238</v>
+      </c>
+      <c r="F11">
+        <v>4.62143008419082</v>
+      </c>
+      <c r="G11">
+        <v>0.0006989465197188578</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.4019551565109651</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>13.94920750398182</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.2738178842424333</v>
+      </c>
+      <c r="D12">
+        <v>0.0606567321395417</v>
+      </c>
+      <c r="E12">
+        <v>0.1885302761229823</v>
+      </c>
+      <c r="F12">
+        <v>4.752123120939274</v>
+      </c>
+      <c r="G12">
+        <v>0.0006962791384430169</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.4132135104288608</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>14.3493715693578</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.2721160870964638</v>
+      </c>
+      <c r="D13">
+        <v>0.06051897900187697</v>
+      </c>
+      <c r="E13">
+        <v>0.187523536521617</v>
+      </c>
+      <c r="F13">
+        <v>4.723861567005173</v>
+      </c>
+      <c r="G13">
+        <v>0.0006968535946174616</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.4107785282582057</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>14.2628401312553</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.2665885825988852</v>
+      </c>
+      <c r="D14">
+        <v>0.06007285505307181</v>
+      </c>
+      <c r="E14">
+        <v>0.1842569881236074</v>
+      </c>
+      <c r="F14">
+        <v>4.632131336070813</v>
+      </c>
+      <c r="G14">
+        <v>0.0006987270595984943</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.4028768064195987</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>13.98197397104616</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.2632196324628211</v>
+      </c>
+      <c r="D15">
+        <v>0.05980194753654189</v>
+      </c>
+      <c r="E15">
+        <v>0.1822686410892729</v>
+      </c>
+      <c r="F15">
+        <v>4.576271647603022</v>
+      </c>
+      <c r="G15">
+        <v>0.0006998747345768198</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.3980662503390704</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>13.81093412182599</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.2441542777361292</v>
+      </c>
+      <c r="D16">
+        <v>0.05828400368478981</v>
+      </c>
+      <c r="E16">
+        <v>0.1710547001099059</v>
+      </c>
+      <c r="F16">
+        <v>4.260871770111578</v>
+      </c>
+      <c r="G16">
+        <v>0.0007064572002050726</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.3709226715050562</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>12.84511589990251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.2326558193819466</v>
+      </c>
+      <c r="D17">
+        <v>0.05738195321359996</v>
+      </c>
+      <c r="E17">
+        <v>0.1643248160684223</v>
+      </c>
+      <c r="F17">
+        <v>4.071265000293806</v>
+      </c>
+      <c r="G17">
+        <v>0.0007105041366094106</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.3546203950082116</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>12.26442518272341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.2261083347841293</v>
+      </c>
+      <c r="D18">
+        <v>0.05687321907787179</v>
+      </c>
+      <c r="E18">
+        <v>0.1605045997377488</v>
+      </c>
+      <c r="F18">
+        <v>3.963514454766141</v>
+      </c>
+      <c r="G18">
+        <v>0.0007128364860469021</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.3453614596672026</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>11.93439709655235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.2239022468826448</v>
+      </c>
+      <c r="D19">
+        <v>0.05670265025734977</v>
+      </c>
+      <c r="E19">
+        <v>0.1592194509709053</v>
+      </c>
+      <c r="F19">
+        <v>3.927245592330195</v>
+      </c>
+      <c r="G19">
+        <v>0.0007136271070496798</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.3422458007375724</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>11.82330405119035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.2338728665801568</v>
+      </c>
+      <c r="D20">
+        <v>0.05747691927508214</v>
+      </c>
+      <c r="E20">
+        <v>0.165035890118169</v>
+      </c>
+      <c r="F20">
+        <v>4.091311183078403</v>
+      </c>
+      <c r="G20">
+        <v>0.0007100728818640793</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.3563433871495505</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>12.32582186387418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.2682086005095528</v>
+      </c>
+      <c r="D21">
+        <v>0.06020339746419268</v>
+      </c>
+      <c r="E21">
+        <v>0.1852138179808662</v>
+      </c>
+      <c r="F21">
+        <v>4.659005651658447</v>
+      </c>
+      <c r="G21">
+        <v>0.0006981767610051262</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.4051915211704937</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.06426062491835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.2913832994736936</v>
+      </c>
+      <c r="D22">
+        <v>0.06208907108837991</v>
+      </c>
+      <c r="E22">
+        <v>0.1989491743514691</v>
+      </c>
+      <c r="F22">
+        <v>5.044362986308442</v>
+      </c>
+      <c r="G22">
+        <v>0.0006904114237017418</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.4384062497359622</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>15.24411131330135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.2789395817722635</v>
+      </c>
+      <c r="D23">
+        <v>0.06107242272037894</v>
+      </c>
+      <c r="E23">
+        <v>0.1915630462245375</v>
+      </c>
+      <c r="F23">
+        <v>4.837234243618298</v>
+      </c>
+      <c r="G23">
+        <v>0.0006945567720511726</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.4205480113849092</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>14.60996069977477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.2333224444164586</v>
+      </c>
+      <c r="D24">
+        <v>0.05743395453023226</v>
+      </c>
+      <c r="E24">
+        <v>0.1647142622902713</v>
+      </c>
+      <c r="F24">
+        <v>4.082244417041522</v>
+      </c>
+      <c r="G24">
+        <v>0.0007102678340432655</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.3555640715135127</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>12.2980526166358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.1865868093573226</v>
+      </c>
+      <c r="D25">
+        <v>0.0538898933230314</v>
+      </c>
+      <c r="E25">
+        <v>0.137650704452593</v>
+      </c>
+      <c r="F25">
+        <v>3.316737074165417</v>
+      </c>
+      <c r="G25">
+        <v>0.0007274056849513944</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.2898729745171948</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>9.952773694271457</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1536667046008802</v>
+        <v>0.04904614488327752</v>
       </c>
       <c r="D2">
-        <v>0.051547447984575</v>
+        <v>0.1367748167803811</v>
       </c>
       <c r="E2">
-        <v>0.1189349028132085</v>
+        <v>0.1464392491620892</v>
       </c>
       <c r="F2">
-        <v>2.783450340050223</v>
+        <v>2.05016538974661</v>
       </c>
       <c r="G2">
-        <v>0.0007403285053665339</v>
+        <v>0.002434556470929708</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.244250877488696</v>
+        <v>0.2009711305352084</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.317726353357386</v>
+        <v>5.513759881882606</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.132027693131235</v>
+        <v>0.04352966595151031</v>
       </c>
       <c r="D3">
-        <v>0.05010176256896415</v>
+        <v>0.1371026173882441</v>
       </c>
       <c r="E3">
-        <v>0.1068347623646986</v>
+        <v>0.1446177847972727</v>
       </c>
       <c r="F3">
-        <v>2.436223334948536</v>
+        <v>1.980028762343863</v>
       </c>
       <c r="G3">
-        <v>0.0007493337050182004</v>
+        <v>0.002440342032459342</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2146217967985962</v>
+        <v>0.1953332899241502</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.252290545184735</v>
+        <v>5.291219219213929</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.118999335436925</v>
+        <v>0.04016292325236748</v>
       </c>
       <c r="D4">
-        <v>0.04927705683744676</v>
+        <v>0.1373433076147101</v>
       </c>
       <c r="E4">
-        <v>0.09964483310762873</v>
+        <v>0.1435801722260734</v>
       </c>
       <c r="F4">
-        <v>2.228689463387013</v>
+        <v>1.938296182754314</v>
       </c>
       <c r="G4">
-        <v>0.0007550011748379548</v>
+        <v>0.002444081946923408</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1969466096437529</v>
+        <v>0.1920013065019575</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.615052516608444</v>
+        <v>5.158232048430364</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1137453792334071</v>
+        <v>0.03879591925563375</v>
       </c>
       <c r="D5">
-        <v>0.04895588225535263</v>
+        <v>0.1374513150845225</v>
       </c>
       <c r="E5">
-        <v>0.09676871941745802</v>
+        <v>0.1431775837973959</v>
       </c>
       <c r="F5">
-        <v>2.145365766530588</v>
+        <v>1.921622456926428</v>
       </c>
       <c r="G5">
-        <v>0.0007573476403449062</v>
+        <v>0.002445653326873506</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1898581418072709</v>
+        <v>0.1906758992079887</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.359091640758436</v>
+        <v>5.104950414272537</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.112876031711707</v>
+        <v>0.03856922492485637</v>
       </c>
       <c r="D6">
-        <v>0.04890342579905393</v>
+        <v>0.137469849400464</v>
       </c>
       <c r="E6">
-        <v>0.09629421875828115</v>
+        <v>0.143111955325697</v>
       </c>
       <c r="F6">
-        <v>2.131600468351834</v>
+        <v>1.918873824376178</v>
       </c>
       <c r="G6">
-        <v>0.0007577395590098985</v>
+        <v>0.002445917117038179</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1886875797770813</v>
+        <v>0.1904577674833234</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.316799277053917</v>
+        <v>5.096157901393042</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1189282673782657</v>
+        <v>0.04014446743859423</v>
       </c>
       <c r="D7">
-        <v>0.04927266620302007</v>
+        <v>0.1373447240423431</v>
       </c>
       <c r="E7">
-        <v>0.09960583486693508</v>
+        <v>0.1435746608811499</v>
       </c>
       <c r="F7">
-        <v>2.227560898562956</v>
+        <v>1.938069971089789</v>
       </c>
       <c r="G7">
-        <v>0.0007550326678600163</v>
+        <v>0.002444102947217419</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1968505689377054</v>
+        <v>0.1919833006641554</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.611586159904903</v>
+        <v>5.157509791371922</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1461458765658818</v>
+        <v>0.04713973221738854</v>
       </c>
       <c r="D8">
-        <v>0.05103532214441131</v>
+        <v>0.1368796679017592</v>
       </c>
       <c r="E8">
-        <v>0.1147089864080719</v>
+        <v>0.1457944037208492</v>
       </c>
       <c r="F8">
-        <v>2.662438923806064</v>
+        <v>2.02570454850482</v>
       </c>
       <c r="G8">
-        <v>0.0007434061729535147</v>
+        <v>0.002436512508476527</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2339174572383058</v>
+        <v>0.1990001632839267</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>7.946504003064376</v>
+        <v>5.436265195847284</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2020599777680872</v>
+        <v>0.06102711453299037</v>
       </c>
       <c r="D9">
-        <v>0.05503859071759365</v>
+        <v>0.1362800148175261</v>
       </c>
       <c r="E9">
-        <v>0.1465536544179464</v>
+        <v>0.1507915675395495</v>
       </c>
       <c r="F9">
-        <v>3.569182376989744</v>
+        <v>2.20823290739537</v>
       </c>
       <c r="G9">
-        <v>0.0007215939582256574</v>
+        <v>0.002423108042804387</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3115119314374368</v>
+        <v>0.213799379725117</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.72636972917485</v>
+        <v>6.012248861076273</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.24547574834952</v>
+        <v>0.07134550460989431</v>
       </c>
       <c r="D10">
-        <v>0.0583883461082948</v>
+        <v>0.1360293435457436</v>
       </c>
       <c r="E10">
-        <v>0.1718297920525131</v>
+        <v>0.1548610410016593</v>
       </c>
       <c r="F10">
-        <v>4.282692687706174</v>
+        <v>2.349018070605268</v>
       </c>
       <c r="G10">
-        <v>0.0007059959473995384</v>
+        <v>0.002414151305276263</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3727995796777321</v>
+        <v>0.2253216067526012</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.91194074184529</v>
+        <v>6.45385907212642</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2659433538282485</v>
+        <v>0.0760672981778896</v>
       </c>
       <c r="D11">
-        <v>0.06002091085174044</v>
+        <v>0.1359564470757633</v>
       </c>
       <c r="E11">
-        <v>0.1838760230395238</v>
+        <v>0.1567999944200409</v>
       </c>
       <c r="F11">
-        <v>4.62143008419082</v>
+        <v>2.414554617585054</v>
       </c>
       <c r="G11">
-        <v>0.0006989465197188578</v>
+        <v>0.00241026789955366</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4019551565109651</v>
+        <v>0.2307078846773578</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.94920750398182</v>
+        <v>6.658884712930103</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2738178842424333</v>
+        <v>0.0778595277758285</v>
       </c>
       <c r="D12">
-        <v>0.0606567321395417</v>
+        <v>0.1359347498822103</v>
       </c>
       <c r="E12">
-        <v>0.1885302761229823</v>
+        <v>0.1575469301407892</v>
       </c>
       <c r="F12">
-        <v>4.752123120939274</v>
+        <v>2.4395891285522</v>
       </c>
       <c r="G12">
-        <v>0.0006962791384430169</v>
+        <v>0.002408824648682824</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4132135104288608</v>
+        <v>0.2327686092152987</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.3493715693578</v>
+        <v>6.737126306207074</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2721160870964638</v>
+        <v>0.07747334993777599</v>
       </c>
       <c r="D13">
-        <v>0.06051897900187697</v>
+        <v>0.1359391601642841</v>
       </c>
       <c r="E13">
-        <v>0.187523536521617</v>
+        <v>0.1573854981983658</v>
       </c>
       <c r="F13">
-        <v>4.723861567005173</v>
+        <v>2.434187794826073</v>
       </c>
       <c r="G13">
-        <v>0.0006968535946174616</v>
+        <v>0.002409134266518744</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4107785282582057</v>
+        <v>0.2323238548569009</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.2628401312553</v>
+        <v>6.720248635271673</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2665885825988852</v>
+        <v>0.07621466101760177</v>
       </c>
       <c r="D14">
-        <v>0.06007285505307181</v>
+        <v>0.1359545436919163</v>
       </c>
       <c r="E14">
-        <v>0.1842569881236074</v>
+        <v>0.1568611903521528</v>
       </c>
       <c r="F14">
-        <v>4.632131336070813</v>
+        <v>2.416609852933561</v>
       </c>
       <c r="G14">
-        <v>0.0006987270595984943</v>
+        <v>0.002410148615919035</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4028768064195987</v>
+        <v>0.2308769982900429</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.98197397104616</v>
+        <v>6.665309566532869</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2632196324628211</v>
+        <v>0.07544422848580723</v>
       </c>
       <c r="D15">
-        <v>0.05980194753654189</v>
+        <v>0.1359647355961826</v>
       </c>
       <c r="E15">
-        <v>0.1822686410892729</v>
+        <v>0.156541692499772</v>
       </c>
       <c r="F15">
-        <v>4.576271647603022</v>
+        <v>2.405871225399522</v>
       </c>
       <c r="G15">
-        <v>0.0006998747345768198</v>
+        <v>0.002410773485899977</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3980662503390704</v>
+        <v>0.2299935064926046</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.81093412182599</v>
+        <v>6.631736554161307</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2441542777361292</v>
+        <v>0.07103750082835347</v>
       </c>
       <c r="D16">
-        <v>0.05828400368478981</v>
+        <v>0.1360349345471192</v>
       </c>
       <c r="E16">
-        <v>0.1710547001099059</v>
+        <v>0.1547360980360324</v>
       </c>
       <c r="F16">
-        <v>4.260871770111578</v>
+        <v>2.344765360487202</v>
       </c>
       <c r="G16">
-        <v>0.0007064572002050726</v>
+        <v>0.002414408925671347</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3709226715050562</v>
+        <v>0.2249725343125277</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.84511589990251</v>
+        <v>6.440544070253679</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2326558193819466</v>
+        <v>0.06834138805332657</v>
       </c>
       <c r="D17">
-        <v>0.05738195321359996</v>
+        <v>0.1360885291582861</v>
       </c>
       <c r="E17">
-        <v>0.1643248160684223</v>
+        <v>0.1536509507887409</v>
       </c>
       <c r="F17">
-        <v>4.071265000293806</v>
+        <v>2.30766303358115</v>
       </c>
       <c r="G17">
-        <v>0.0007105041366094106</v>
+        <v>0.00241668796849577</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3546203950082116</v>
+        <v>0.2219295774008998</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.26442518272341</v>
+        <v>6.324318542011838</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2261083347841293</v>
+        <v>0.06679327129099022</v>
       </c>
       <c r="D18">
-        <v>0.05687321907787179</v>
+        <v>0.1361232276551974</v>
       </c>
       <c r="E18">
-        <v>0.1605045997377488</v>
+        <v>0.1530350553665514</v>
       </c>
       <c r="F18">
-        <v>3.963514454766141</v>
+        <v>2.286463095253168</v>
       </c>
       <c r="G18">
-        <v>0.0007128364860469021</v>
+        <v>0.002418016807068295</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3453614596672026</v>
+        <v>0.2201929597444803</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.93439709655235</v>
+        <v>6.257857391018661</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2239022468826448</v>
+        <v>0.06626954953242148</v>
       </c>
       <c r="D19">
-        <v>0.05670265025734977</v>
+        <v>0.1361356412918582</v>
       </c>
       <c r="E19">
-        <v>0.1592194509709053</v>
+        <v>0.152827938718044</v>
       </c>
       <c r="F19">
-        <v>3.927245592330195</v>
+        <v>2.27930918533167</v>
       </c>
       <c r="G19">
-        <v>0.0007136271070496798</v>
+        <v>0.00241846982404647</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3422458007375724</v>
+        <v>0.219607301197982</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.82330405119035</v>
+        <v>6.235421298198503</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2338728665801568</v>
+        <v>0.06862812184921552</v>
       </c>
       <c r="D20">
-        <v>0.05747691927508214</v>
+        <v>0.1360824232134874</v>
       </c>
       <c r="E20">
-        <v>0.165035890118169</v>
+        <v>0.1537656118770272</v>
       </c>
       <c r="F20">
-        <v>4.091311183078403</v>
+        <v>2.31159809642412</v>
       </c>
       <c r="G20">
-        <v>0.0007100728818640793</v>
+        <v>0.002416443499720094</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3563433871495505</v>
+        <v>0.22225209496861</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.32582186387418</v>
+        <v>6.336650659906809</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2682086005095528</v>
+        <v>0.07658425336620667</v>
       </c>
       <c r="D21">
-        <v>0.06020339746419268</v>
+        <v>0.135949864921713</v>
       </c>
       <c r="E21">
-        <v>0.1852138179808662</v>
+        <v>0.1570148470531407</v>
       </c>
       <c r="F21">
-        <v>4.659005651658447</v>
+        <v>2.421767003689439</v>
       </c>
       <c r="G21">
-        <v>0.0006981767610051262</v>
+        <v>0.002409849936775932</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4051915211704937</v>
+        <v>0.2313014016789623</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.06426062491835</v>
+        <v>6.681430075679373</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2913832994736936</v>
+        <v>0.08180854445863872</v>
       </c>
       <c r="D22">
-        <v>0.06208907108837991</v>
+        <v>0.1358976581553293</v>
       </c>
       <c r="E22">
-        <v>0.1989491743514691</v>
+        <v>0.159212451786388</v>
       </c>
       <c r="F22">
-        <v>5.044362986308442</v>
+        <v>2.495036253509966</v>
       </c>
       <c r="G22">
-        <v>0.0006904114237017418</v>
+        <v>0.002405699776436031</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4384062497359622</v>
+        <v>0.2373385043004532</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.24411131330135</v>
+        <v>6.910281055858945</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2789395817722635</v>
+        <v>0.07901794153349329</v>
       </c>
       <c r="D23">
-        <v>0.06107242272037894</v>
+        <v>0.1359223743081444</v>
       </c>
       <c r="E23">
-        <v>0.1915630462245375</v>
+        <v>0.1580327467679723</v>
       </c>
       <c r="F23">
-        <v>4.837234243618298</v>
+        <v>2.455814227775562</v>
       </c>
       <c r="G23">
-        <v>0.0006945567720511726</v>
+        <v>0.002407900290276882</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4205480113849092</v>
+        <v>0.2341050664453803</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.60996069977477</v>
+        <v>6.787814350591702</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2333224444164586</v>
+        <v>0.06849848355155075</v>
       </c>
       <c r="D24">
-        <v>0.05743395453023226</v>
+        <v>0.1360851716055436</v>
       </c>
       <c r="E24">
-        <v>0.1647142622902713</v>
+        <v>0.1537137487798041</v>
       </c>
       <c r="F24">
-        <v>4.082244417041522</v>
+        <v>2.309818647658062</v>
       </c>
       <c r="G24">
-        <v>0.0007102678340432655</v>
+        <v>0.002416553966181921</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3555640715135127</v>
+        <v>0.2221062448667368</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.2980526166358</v>
+        <v>6.331074193523875</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1865868093573226</v>
+        <v>0.05725082268395454</v>
       </c>
       <c r="D25">
-        <v>0.0538898933230314</v>
+        <v>0.1364088544321582</v>
       </c>
       <c r="E25">
-        <v>0.137650704452593</v>
+        <v>0.1493701888532044</v>
       </c>
       <c r="F25">
-        <v>3.316737074165417</v>
+        <v>2.157693419874022</v>
       </c>
       <c r="G25">
-        <v>0.0007274056849513944</v>
+        <v>0.002426576956399249</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2898729745171948</v>
+        <v>0.2096829376188794</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.952773694271457</v>
+        <v>5.853232542874025</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04904614488327752</v>
+        <v>0.1536667046006102</v>
       </c>
       <c r="D2">
-        <v>0.1367748167803811</v>
+        <v>0.05154744798457855</v>
       </c>
       <c r="E2">
-        <v>0.1464392491620892</v>
+        <v>0.1189349028131517</v>
       </c>
       <c r="F2">
-        <v>2.05016538974661</v>
+        <v>2.78345034005028</v>
       </c>
       <c r="G2">
-        <v>0.002434556470929708</v>
+        <v>0.0007403285054220451</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2009711305352084</v>
+        <v>0.2442508774887671</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.513759881882606</v>
+        <v>8.317726353357443</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04352966595151031</v>
+        <v>0.1320276931314623</v>
       </c>
       <c r="D3">
-        <v>0.1371026173882441</v>
+        <v>0.05010176256895704</v>
       </c>
       <c r="E3">
-        <v>0.1446177847972727</v>
+        <v>0.1068347623647057</v>
       </c>
       <c r="F3">
-        <v>1.980028762343863</v>
+        <v>2.43622333494848</v>
       </c>
       <c r="G3">
-        <v>0.002440342032459342</v>
+        <v>0.0007493337050178138</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1953332899241502</v>
+        <v>0.2146217967985393</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.291219219213929</v>
+        <v>7.252290545184849</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04016292325236748</v>
+        <v>0.1189993354371239</v>
       </c>
       <c r="D4">
-        <v>0.1373433076147101</v>
+        <v>0.04927705683755335</v>
       </c>
       <c r="E4">
-        <v>0.1435801722260734</v>
+        <v>0.09964483310762517</v>
       </c>
       <c r="F4">
-        <v>1.938296182754314</v>
+        <v>2.228689463387013</v>
       </c>
       <c r="G4">
-        <v>0.002444081946923408</v>
+        <v>0.0007550011747877281</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1920013065019575</v>
+        <v>0.1969466096437031</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.158232048430364</v>
+        <v>6.615052516608444</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03879591925563375</v>
+        <v>0.1137453792329666</v>
       </c>
       <c r="D5">
-        <v>0.1374513150845225</v>
+        <v>0.04895588225513237</v>
       </c>
       <c r="E5">
-        <v>0.1431775837973959</v>
+        <v>0.09676871941748644</v>
       </c>
       <c r="F5">
-        <v>1.921622456926428</v>
+        <v>2.145365766530617</v>
       </c>
       <c r="G5">
-        <v>0.002445653326873506</v>
+        <v>0.0007573476403446473</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1906758992079887</v>
+        <v>0.1898581418071998</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.104950414272537</v>
+        <v>6.359091640758493</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03856922492485637</v>
+        <v>0.1128760317116928</v>
       </c>
       <c r="D6">
-        <v>0.137469849400464</v>
+        <v>0.04890342579906459</v>
       </c>
       <c r="E6">
-        <v>0.143111955325697</v>
+        <v>0.09629421875829181</v>
       </c>
       <c r="F6">
-        <v>1.918873824376178</v>
+        <v>2.131600468351863</v>
       </c>
       <c r="G6">
-        <v>0.002445917117038179</v>
+        <v>0.0007577395590106383</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1904577674833234</v>
+        <v>0.1886875797771026</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.096157901393042</v>
+        <v>6.31679927705386</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04014446743859423</v>
+        <v>0.1189282673784788</v>
       </c>
       <c r="D7">
-        <v>0.1373447240423431</v>
+        <v>0.04927266620291348</v>
       </c>
       <c r="E7">
-        <v>0.1435746608811499</v>
+        <v>0.09960583486694219</v>
       </c>
       <c r="F7">
-        <v>1.938069971089789</v>
+        <v>2.227560898562928</v>
       </c>
       <c r="G7">
-        <v>0.002444102947217419</v>
+        <v>0.0007550326678592567</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1919833006641554</v>
+        <v>0.1968505689376769</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.157509791371922</v>
+        <v>6.611586159904959</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04713973221738854</v>
+        <v>0.1461458765658676</v>
       </c>
       <c r="D8">
-        <v>0.1368796679017592</v>
+        <v>0.05103532214452144</v>
       </c>
       <c r="E8">
-        <v>0.1457944037208492</v>
+        <v>0.1147089864079973</v>
       </c>
       <c r="F8">
-        <v>2.02570454850482</v>
+        <v>2.662438923806064</v>
       </c>
       <c r="G8">
-        <v>0.002436512508476527</v>
+        <v>0.0007434061729529544</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1990001632839267</v>
+        <v>0.233917457238249</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.436265195847284</v>
+        <v>7.946504003064263</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06102711453299037</v>
+        <v>0.2020599777681298</v>
       </c>
       <c r="D9">
-        <v>0.1362800148175261</v>
+        <v>0.05503859071759365</v>
       </c>
       <c r="E9">
-        <v>0.1507915675395495</v>
+        <v>0.1465536544179074</v>
       </c>
       <c r="F9">
-        <v>2.20823290739537</v>
+        <v>3.569182376989744</v>
       </c>
       <c r="G9">
-        <v>0.002423108042804387</v>
+        <v>0.0007215939582257361</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.213799379725117</v>
+        <v>0.3115119314374226</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6.012248861076273</v>
+        <v>10.72636972917485</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07134550460989431</v>
+        <v>0.2454757483497474</v>
       </c>
       <c r="D10">
-        <v>0.1360293435457436</v>
+        <v>0.0583883461083019</v>
       </c>
       <c r="E10">
-        <v>0.1548610410016593</v>
+        <v>0.1718297920525202</v>
       </c>
       <c r="F10">
-        <v>2.349018070605268</v>
+        <v>4.282692687706174</v>
       </c>
       <c r="G10">
-        <v>0.002414151305276263</v>
+        <v>0.0007059959473995337</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2253216067526012</v>
+        <v>0.372799579677789</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.45385907212642</v>
+        <v>12.91194074184534</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0760672981778896</v>
+        <v>0.2659433538285185</v>
       </c>
       <c r="D11">
-        <v>0.1359564470757633</v>
+        <v>0.06002091085187544</v>
       </c>
       <c r="E11">
-        <v>0.1567999944200409</v>
+        <v>0.1838760230394811</v>
       </c>
       <c r="F11">
-        <v>2.414554617585054</v>
+        <v>4.62143008419082</v>
       </c>
       <c r="G11">
-        <v>0.00241026789955366</v>
+        <v>0.0006989465195794501</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2307078846773578</v>
+        <v>0.4019551565111357</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.658884712930103</v>
+        <v>13.94920750398182</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0778595277758285</v>
+        <v>0.2738178842427459</v>
       </c>
       <c r="D12">
-        <v>0.1359347498822103</v>
+        <v>0.06065673213939249</v>
       </c>
       <c r="E12">
-        <v>0.1575469301407892</v>
+        <v>0.1885302761229823</v>
       </c>
       <c r="F12">
-        <v>2.4395891285522</v>
+        <v>4.752123120939245</v>
       </c>
       <c r="G12">
-        <v>0.002408824648682824</v>
+        <v>0.0006962791385148021</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2327686092152987</v>
+        <v>0.4132135104286903</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.737126306207074</v>
+        <v>14.34937156935769</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07747334993777599</v>
+        <v>0.2721160870964781</v>
       </c>
       <c r="D13">
-        <v>0.1359391601642841</v>
+        <v>0.06051897900186987</v>
       </c>
       <c r="E13">
-        <v>0.1573854981983658</v>
+        <v>0.1875235365216099</v>
       </c>
       <c r="F13">
-        <v>2.434187794826073</v>
+        <v>4.723861567005144</v>
       </c>
       <c r="G13">
-        <v>0.002409134266518744</v>
+        <v>0.0006968535946722976</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2323238548569009</v>
+        <v>0.4107785282582199</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.720248635271673</v>
+        <v>14.26284013125542</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07621466101760177</v>
+        <v>0.2665885825989562</v>
       </c>
       <c r="D14">
-        <v>0.1359545436919163</v>
+        <v>0.0600728550529368</v>
       </c>
       <c r="E14">
-        <v>0.1568611903521528</v>
+        <v>0.1842569881235647</v>
       </c>
       <c r="F14">
-        <v>2.416609852933561</v>
+        <v>4.632131336070785</v>
       </c>
       <c r="G14">
-        <v>0.002410148615919035</v>
+        <v>0.00069872705970587</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2308769982900429</v>
+        <v>0.4028768064196697</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.665309566532869</v>
+        <v>13.98197397104616</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07544422848580723</v>
+        <v>0.2632196324625227</v>
       </c>
       <c r="D15">
-        <v>0.1359647355961826</v>
+        <v>0.05980194753640689</v>
       </c>
       <c r="E15">
-        <v>0.156541692499772</v>
+        <v>0.182268641089216</v>
       </c>
       <c r="F15">
-        <v>2.405871225399522</v>
+        <v>4.576271647602965</v>
       </c>
       <c r="G15">
-        <v>0.002410773485899977</v>
+        <v>0.00069987473450972</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2299935064926046</v>
+        <v>0.398066250339042</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.631736554161307</v>
+        <v>13.81093412182577</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07103750082835347</v>
+        <v>0.2441542777361292</v>
       </c>
       <c r="D16">
-        <v>0.1360349345471192</v>
+        <v>0.05828400368493902</v>
       </c>
       <c r="E16">
-        <v>0.1547360980360324</v>
+        <v>0.1710547001099414</v>
       </c>
       <c r="F16">
-        <v>2.344765360487202</v>
+        <v>4.260871770111549</v>
       </c>
       <c r="G16">
-        <v>0.002414408925671347</v>
+        <v>0.0007064572000971846</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2249725343125277</v>
+        <v>0.3709226715050278</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.440544070253679</v>
+        <v>12.84511589990245</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06834138805332657</v>
+        <v>0.2326558193821739</v>
       </c>
       <c r="D17">
-        <v>0.1360885291582861</v>
+        <v>0.05738195321360706</v>
       </c>
       <c r="E17">
-        <v>0.1536509507887409</v>
+        <v>0.1643248160683477</v>
       </c>
       <c r="F17">
-        <v>2.30766303358115</v>
+        <v>4.071265000293778</v>
       </c>
       <c r="G17">
-        <v>0.00241668796849577</v>
+        <v>0.0007105041365453368</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2219295774008998</v>
+        <v>0.3546203950083111</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.324318542011838</v>
+        <v>12.2644251827233</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06679327129099022</v>
+        <v>0.2261083347838451</v>
       </c>
       <c r="D18">
-        <v>0.1361232276551974</v>
+        <v>0.05687321907785758</v>
       </c>
       <c r="E18">
-        <v>0.1530350553665514</v>
+        <v>0.1605045997377488</v>
       </c>
       <c r="F18">
-        <v>2.286463095253168</v>
+        <v>3.963514454766141</v>
       </c>
       <c r="G18">
-        <v>0.002418016807068295</v>
+        <v>0.0007128364859920943</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2201929597444803</v>
+        <v>0.3453614596671173</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.257857391018661</v>
+        <v>11.93439709655235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06626954953242148</v>
+        <v>0.2239022468824317</v>
       </c>
       <c r="D19">
-        <v>0.1361356412918582</v>
+        <v>0.05670265025746346</v>
       </c>
       <c r="E19">
-        <v>0.152827938718044</v>
+        <v>0.1592194509709124</v>
       </c>
       <c r="F19">
-        <v>2.27930918533167</v>
+        <v>3.927245592330252</v>
       </c>
       <c r="G19">
-        <v>0.00241846982404647</v>
+        <v>0.0007136271070597517</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.219607301197982</v>
+        <v>0.3422458007376434</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.235421298198503</v>
+        <v>11.82330405119046</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06862812184921552</v>
+        <v>0.2338728665796737</v>
       </c>
       <c r="D20">
-        <v>0.1360824232134874</v>
+        <v>0.05747691927494714</v>
       </c>
       <c r="E20">
-        <v>0.1537656118770272</v>
+        <v>0.1650358901181548</v>
       </c>
       <c r="F20">
-        <v>2.31159809642412</v>
+        <v>4.091311183078432</v>
       </c>
       <c r="G20">
-        <v>0.002416443499720094</v>
+        <v>0.0007100728819309565</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.22225209496861</v>
+        <v>0.3563433871496784</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.336650659906809</v>
+        <v>12.32582186387407</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07658425336620667</v>
+        <v>0.2682086005097801</v>
       </c>
       <c r="D21">
-        <v>0.135949864921713</v>
+        <v>0.06020339746377346</v>
       </c>
       <c r="E21">
-        <v>0.1570148470531407</v>
+        <v>0.185213817980916</v>
       </c>
       <c r="F21">
-        <v>2.421767003689439</v>
+        <v>4.659005651658418</v>
       </c>
       <c r="G21">
-        <v>0.002409849936775932</v>
+        <v>0.0006981767610769413</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2313014016789623</v>
+        <v>0.4051915211705364</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.681430075679373</v>
+        <v>14.06426062491823</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08180854445863872</v>
+        <v>0.2913832994736794</v>
       </c>
       <c r="D22">
-        <v>0.1358976581553293</v>
+        <v>0.06208907108895545</v>
       </c>
       <c r="E22">
-        <v>0.159212451786388</v>
+        <v>0.1989491743514904</v>
       </c>
       <c r="F22">
-        <v>2.495036253509966</v>
+        <v>5.044362986308471</v>
       </c>
       <c r="G22">
-        <v>0.002405699776436031</v>
+        <v>0.0006904114236282823</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2373385043004532</v>
+        <v>0.4384062497358627</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.910281055858945</v>
+        <v>15.24411131330135</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07901794153349329</v>
+        <v>0.2789395817722493</v>
       </c>
       <c r="D23">
-        <v>0.1359223743081444</v>
+        <v>0.06107242272051394</v>
       </c>
       <c r="E23">
-        <v>0.1580327467679723</v>
+        <v>0.1915630462245375</v>
       </c>
       <c r="F23">
-        <v>2.455814227775562</v>
+        <v>4.837234243618326</v>
       </c>
       <c r="G23">
-        <v>0.002407900290276882</v>
+        <v>0.0006945567719793821</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2341050664453803</v>
+        <v>0.420548011384966</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.787814350591702</v>
+        <v>14.60996069977489</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06849848355155075</v>
+        <v>0.2333224444161885</v>
       </c>
       <c r="D24">
-        <v>0.1360851716055436</v>
+        <v>0.05743395453023226</v>
       </c>
       <c r="E24">
-        <v>0.1537137487798041</v>
+        <v>0.1647142622903388</v>
       </c>
       <c r="F24">
-        <v>2.309818647658062</v>
+        <v>4.082244417041494</v>
       </c>
       <c r="G24">
-        <v>0.002416553966181921</v>
+        <v>0.0007102678340439937</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2221062448667368</v>
+        <v>0.3555640715133848</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.331074193523875</v>
+        <v>12.2980526166358</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05725082268395454</v>
+        <v>0.1865868093573511</v>
       </c>
       <c r="D25">
-        <v>0.1364088544321582</v>
+        <v>0.05388989332314154</v>
       </c>
       <c r="E25">
-        <v>0.1493701888532044</v>
+        <v>0.1376507044525326</v>
       </c>
       <c r="F25">
-        <v>2.157693419874022</v>
+        <v>3.316737074165417</v>
       </c>
       <c r="G25">
-        <v>0.002426576956399249</v>
+        <v>0.0007274056850127689</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2096829376188794</v>
+        <v>0.2898729745172091</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.853232542874025</v>
+        <v>9.9527736942714</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,34 +430,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1536667046006102</v>
+        <v>0.02530757990358978</v>
       </c>
       <c r="D2">
-        <v>0.05154744798457855</v>
+        <v>0.03849820113431779</v>
       </c>
       <c r="E2">
-        <v>0.1189349028131517</v>
+        <v>0.1457020507759488</v>
       </c>
       <c r="F2">
-        <v>2.78345034005028</v>
+        <v>4.415016865427958</v>
       </c>
       <c r="G2">
-        <v>0.0007403285054220451</v>
+        <v>4.341347695604071</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01250025318325193</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.04158091821134402</v>
       </c>
       <c r="J2">
-        <v>0.2442508774887671</v>
+        <v>2.279514476562611</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.000884933238893</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3614975481987983</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,10 +466,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.317726353357443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>7.66312166460591</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,34 +483,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1320276931314623</v>
+        <v>0.02060394853582892</v>
       </c>
       <c r="D3">
-        <v>0.05010176256895704</v>
+        <v>0.03668126136689542</v>
       </c>
       <c r="E3">
-        <v>0.1068347623647057</v>
+        <v>0.1299481629137915</v>
       </c>
       <c r="F3">
-        <v>2.43622333494848</v>
+        <v>3.896523577508191</v>
       </c>
       <c r="G3">
-        <v>0.0007493337050178138</v>
+        <v>3.80634819083528</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.007188981325024102</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02964100696638328</v>
       </c>
       <c r="J3">
-        <v>0.2146217967985393</v>
+        <v>2.023441098358006</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.642539970400435</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3177075171422672</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,10 +519,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.252290545184849</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,34 +536,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1189993354371239</v>
+        <v>0.01795178113028228</v>
       </c>
       <c r="D4">
-        <v>0.04927705683755335</v>
+        <v>0.03557681399424384</v>
       </c>
       <c r="E4">
-        <v>0.09964483310762517</v>
+        <v>0.1203780790145395</v>
       </c>
       <c r="F4">
-        <v>2.228689463387013</v>
+        <v>3.579894877065726</v>
       </c>
       <c r="G4">
-        <v>0.0007550011747877281</v>
+        <v>3.47947942242007</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004589649495049919</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02317982290019627</v>
       </c>
       <c r="J4">
-        <v>0.1969466096437031</v>
+        <v>1.867054595346275</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.423234304334301</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2910556033688039</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,10 +572,16 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.615052516608444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>6.187481969423061</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,34 +589,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1137453792329666</v>
+        <v>0.01703956565341969</v>
       </c>
       <c r="D5">
-        <v>0.04895588225513237</v>
+        <v>0.03513160216918187</v>
       </c>
       <c r="E5">
-        <v>0.09676871941748644</v>
+        <v>0.1165223762366878</v>
       </c>
       <c r="F5">
-        <v>2.145365766530617</v>
+        <v>3.448187686978571</v>
       </c>
       <c r="G5">
-        <v>0.0007573476403446473</v>
+        <v>3.343135941555659</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003675535491522997</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02076134590234346</v>
       </c>
       <c r="J5">
-        <v>0.1898581418071998</v>
+        <v>1.801777461094076</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.331037950559434</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2801572479974297</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,10 +625,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.359091640758493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5.958052239810286</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,34 +642,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1128760317116928</v>
+        <v>0.0170345327295891</v>
       </c>
       <c r="D6">
-        <v>0.04890342579906459</v>
+        <v>0.03506201433144218</v>
       </c>
       <c r="E6">
-        <v>0.09629421875829181</v>
+        <v>0.1159130126190533</v>
       </c>
       <c r="F6">
-        <v>2.131600468351863</v>
+        <v>3.422653255605582</v>
       </c>
       <c r="G6">
-        <v>0.0007577395590106383</v>
+        <v>3.316298892327751</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003524344546298463</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02040022439214173</v>
       </c>
       <c r="J6">
-        <v>0.1886875797771026</v>
+        <v>1.788854924748421</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.312135445703206</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2782490399047077</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,10 +678,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.31679927705386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>5.919936152110608</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,34 +695,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1189282673784788</v>
+        <v>0.01832844436624725</v>
       </c>
       <c r="D7">
-        <v>0.04927266620291348</v>
+        <v>0.03558145040176885</v>
       </c>
       <c r="E7">
-        <v>0.09960583486694219</v>
+        <v>0.1204071124686479</v>
       </c>
       <c r="F7">
-        <v>2.227560898562928</v>
+        <v>3.56801197782633</v>
       </c>
       <c r="G7">
-        <v>0.0007550326678592567</v>
+        <v>3.466074105351197</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004550847496684884</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02320327611640849</v>
       </c>
       <c r="J7">
-        <v>0.1968505689376769</v>
+        <v>1.860433665788293</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.41211224089443</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2906298626361803</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,10 +731,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.611586159904959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,34 +748,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1461458765658676</v>
+        <v>0.02414560091630591</v>
       </c>
       <c r="D8">
-        <v>0.05103532214452144</v>
+        <v>0.0378799197230606</v>
       </c>
       <c r="E8">
-        <v>0.1147089864079973</v>
+        <v>0.1403503828431596</v>
       </c>
       <c r="F8">
-        <v>2.662438923806064</v>
+        <v>4.22221822459332</v>
       </c>
       <c r="G8">
-        <v>0.0007434061729529544</v>
+        <v>4.140905040596238</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01047111657028033</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.03728065424175941</v>
       </c>
       <c r="J8">
-        <v>0.233917457238249</v>
+        <v>2.183295917918713</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.86384571420497</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3459571773331618</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,10 +784,16 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>7.946504003064263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>7.348453399592813</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,34 +801,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2020599777681298</v>
+        <v>0.03705367405907367</v>
       </c>
       <c r="D9">
-        <v>0.05503859071759365</v>
+        <v>0.04252229390808715</v>
       </c>
       <c r="E9">
-        <v>0.1465536544179074</v>
+        <v>0.1804287422414106</v>
       </c>
       <c r="F9">
-        <v>3.569182376989744</v>
+        <v>5.542490345405042</v>
       </c>
       <c r="G9">
-        <v>0.0007215939582257361</v>
+        <v>5.50361742394972</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02812448641569354</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.07289702356458783</v>
       </c>
       <c r="J9">
-        <v>0.3115119314374226</v>
+        <v>2.836145551833113</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.776803897848964</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4575455869851623</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,10 +837,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.72636972917485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>9.620230281550789</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,34 +854,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2454757483497474</v>
+        <v>0.0477527941187823</v>
       </c>
       <c r="D10">
-        <v>0.0583883461083019</v>
+        <v>0.04609521475816303</v>
       </c>
       <c r="E10">
-        <v>0.1718297920525202</v>
+        <v>0.2034128747281869</v>
       </c>
       <c r="F10">
-        <v>4.282692687706174</v>
+        <v>6.458673739517536</v>
       </c>
       <c r="G10">
-        <v>0.0007059959473995337</v>
+        <v>6.458952079745927</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.04502369168383957</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1046329206364334</v>
       </c>
       <c r="J10">
-        <v>0.372799579677789</v>
+        <v>3.293234422529565</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4.415265319017692</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5222851922276703</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,10 +890,16 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.91194074184534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.28258838837513</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,34 +907,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2659433538285185</v>
+        <v>0.04699924791748344</v>
       </c>
       <c r="D11">
-        <v>0.06002091085187544</v>
+        <v>0.0496817202820079</v>
       </c>
       <c r="E11">
-        <v>0.1838760230394811</v>
+        <v>0.1555499217350409</v>
       </c>
       <c r="F11">
-        <v>4.62143008419082</v>
+        <v>6.273379315620957</v>
       </c>
       <c r="G11">
-        <v>0.0006989465195794501</v>
+        <v>6.364701322554822</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.06447390088488092</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1123442161461687</v>
       </c>
       <c r="J11">
-        <v>0.4019551565111357</v>
+        <v>3.240513566526602</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.362591407360014</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3959579962716191</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,10 +943,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.94920750398182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.03742316731751</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,34 +960,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2738178842427459</v>
+        <v>0.04404288028790049</v>
       </c>
       <c r="D12">
-        <v>0.06065673213939249</v>
+        <v>0.05499103712722331</v>
       </c>
       <c r="E12">
-        <v>0.1885302761229823</v>
+        <v>0.1205377615131855</v>
       </c>
       <c r="F12">
-        <v>4.752123120939245</v>
+        <v>5.940551142647507</v>
       </c>
       <c r="G12">
-        <v>0.0006962791385148021</v>
+        <v>6.100581416904561</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1012003956198058</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1119109551104236</v>
       </c>
       <c r="J12">
-        <v>0.4132135104286903</v>
+        <v>3.107674585253676</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4.198015914455056</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2971044664264966</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,10 +996,16 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.34937156935769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.32306348037548</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,34 +1013,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2721160870964781</v>
+        <v>0.03984519814628129</v>
       </c>
       <c r="D13">
-        <v>0.06051897900186987</v>
+        <v>0.06172516534401495</v>
       </c>
       <c r="E13">
-        <v>0.1875235365216099</v>
+        <v>0.09371918966754045</v>
       </c>
       <c r="F13">
-        <v>4.723861567005144</v>
+        <v>5.462166455346079</v>
       </c>
       <c r="G13">
-        <v>0.0006968535946722976</v>
+        <v>5.674454649982579</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1526273849750481</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1051367257848606</v>
       </c>
       <c r="J13">
-        <v>0.4107785282582199</v>
+        <v>2.897495180737451</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.923486722282945</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2141186093797103</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,10 +1049,16 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.26284013125542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.26155457991888</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,34 +1066,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2665885825989562</v>
+        <v>0.03656835534943248</v>
       </c>
       <c r="D14">
-        <v>0.0600728550529368</v>
+        <v>0.06730994249972611</v>
       </c>
       <c r="E14">
-        <v>0.1842569881235647</v>
+        <v>0.08022330422017188</v>
       </c>
       <c r="F14">
-        <v>4.632131336070785</v>
+        <v>5.063593282983589</v>
       </c>
       <c r="G14">
-        <v>0.00069872705970587</v>
+        <v>5.303764373302158</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1981102915225819</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.09784336930922066</v>
       </c>
       <c r="J14">
-        <v>0.4028768064196697</v>
+        <v>2.715725790333636</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.681341100215946</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1666918686180487</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,10 +1102,16 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.98197397104616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.06092695796559</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,34 +1119,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2632196324625227</v>
+        <v>0.03549873549395599</v>
       </c>
       <c r="D15">
-        <v>0.05980194753640689</v>
+        <v>0.06845280661974584</v>
       </c>
       <c r="E15">
-        <v>0.182268641089216</v>
+        <v>0.07736170118855146</v>
       </c>
       <c r="F15">
-        <v>4.576271647602965</v>
+        <v>4.93294879506891</v>
       </c>
       <c r="G15">
-        <v>0.00069987473450972</v>
+        <v>5.175930152408114</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2090622685527848</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.09480245898940609</v>
       </c>
       <c r="J15">
-        <v>0.398066250339042</v>
+        <v>2.653500472848691</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.596103265970982</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1559084850232821</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,10 +1155,16 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.81093412182577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.93801081193845</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,34 +1172,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2441542777361292</v>
+        <v>0.0319480173052753</v>
       </c>
       <c r="D16">
-        <v>0.05828400368493902</v>
+        <v>0.06501382298964131</v>
       </c>
       <c r="E16">
-        <v>0.1710547001099414</v>
+        <v>0.07416433884563034</v>
       </c>
       <c r="F16">
-        <v>4.260871770111549</v>
+        <v>4.646083498739813</v>
       </c>
       <c r="G16">
-        <v>0.0007064572000971846</v>
+        <v>4.858231236199856</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1900951308769265</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.08265144909680089</v>
       </c>
       <c r="J16">
-        <v>0.3709226715050278</v>
+        <v>2.502571839510608</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.38010868385183</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1488499971552919</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,10 +1208,16 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.84511589990245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.23323027560713</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,34 +1225,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2326558193821739</v>
+        <v>0.03095376344455758</v>
       </c>
       <c r="D17">
-        <v>0.05738195321360706</v>
+        <v>0.05928009444896531</v>
       </c>
       <c r="E17">
-        <v>0.1643248160683477</v>
+        <v>0.07777104053392669</v>
       </c>
       <c r="F17">
-        <v>4.071265000293778</v>
+        <v>4.634217950637634</v>
       </c>
       <c r="G17">
-        <v>0.0007105041365453368</v>
+        <v>4.808561700229404</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1495620955523833</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.07718567012547517</v>
       </c>
       <c r="J17">
-        <v>0.3546203950083111</v>
+        <v>2.482022432519102</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.341127117933411</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1659959176962644</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,10 +1261,16 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.2644251827233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>10.80051555282938</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,34 +1278,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2261083347838451</v>
+        <v>0.0320847907685895</v>
       </c>
       <c r="D18">
-        <v>0.05687321907785758</v>
+        <v>0.05243220684364047</v>
       </c>
       <c r="E18">
-        <v>0.1605045997377488</v>
+        <v>0.09271026013529138</v>
       </c>
       <c r="F18">
-        <v>3.963514454766141</v>
+        <v>4.867240381109269</v>
       </c>
       <c r="G18">
-        <v>0.0007128364859920943</v>
+        <v>4.99327117197555</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09683103892371037</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.07646373668282092</v>
       </c>
       <c r="J18">
-        <v>0.3453614596671173</v>
+        <v>2.575842305475533</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.457865405635573</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2165096372171149</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,10 +1314,16 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.93439709655235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>10.55149949033279</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,34 +1331,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2239022468824317</v>
+        <v>0.03579308073810239</v>
       </c>
       <c r="D19">
-        <v>0.05670265025746346</v>
+        <v>0.04688452333308391</v>
       </c>
       <c r="E19">
-        <v>0.1592194509709124</v>
+        <v>0.1235029883777123</v>
       </c>
       <c r="F19">
-        <v>3.927245592330252</v>
+        <v>5.270442525377348</v>
       </c>
       <c r="G19">
-        <v>0.0007136271070597517</v>
+        <v>5.337619851611919</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.05447948992637208</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.07988839083172472</v>
       </c>
       <c r="J19">
-        <v>0.3422458007376434</v>
+        <v>2.746914553092665</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.67653936256545</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3062164097671456</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,10 +1367,16 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.82330405119046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>10.46716465870099</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,34 +1384,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2338728665796737</v>
+        <v>0.04599822056910341</v>
       </c>
       <c r="D20">
-        <v>0.05747691927494714</v>
+        <v>0.04513560542521411</v>
       </c>
       <c r="E20">
-        <v>0.1650358901181548</v>
+        <v>0.1971992113290106</v>
       </c>
       <c r="F20">
-        <v>4.091311183078432</v>
+        <v>6.1804713164519</v>
       </c>
       <c r="G20">
-        <v>0.0007100728819309565</v>
+        <v>6.165946316648501</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03994819965780749</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.09563181694525369</v>
       </c>
       <c r="J20">
-        <v>0.3563433871496784</v>
+        <v>3.152380284082199</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4.212672216933413</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5032859591924108</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,10 +1420,16 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.32582186387407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>10.84659223998074</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,34 +1437,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2682086005097801</v>
+        <v>0.05595390939190992</v>
       </c>
       <c r="D21">
-        <v>0.06020339746377346</v>
+        <v>0.04802711130010007</v>
       </c>
       <c r="E21">
-        <v>0.185213817980916</v>
+        <v>0.2270762032006139</v>
       </c>
       <c r="F21">
-        <v>4.659005651658418</v>
+        <v>7.003858399109731</v>
       </c>
       <c r="G21">
-        <v>0.0006981767610769413</v>
+        <v>7.006599877287613</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.05596716745827823</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1239684240400996</v>
       </c>
       <c r="J21">
-        <v>0.4051915211705364</v>
+        <v>3.556111394521906</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4.772466366620364</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.584756889723252</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,10 +1473,16 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.06426062491823</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.11986155709377</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,34 +1490,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2913832994736794</v>
+        <v>0.06203734334927447</v>
       </c>
       <c r="D22">
-        <v>0.06208907108895545</v>
+        <v>0.04995155858766953</v>
       </c>
       <c r="E22">
-        <v>0.1989491743514904</v>
+        <v>0.2430053644035901</v>
       </c>
       <c r="F22">
-        <v>5.044362986308471</v>
+        <v>7.528306382752277</v>
       </c>
       <c r="G22">
-        <v>0.0006904114236282823</v>
+        <v>7.548982079171992</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.06743936639304593</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1439519507460867</v>
       </c>
       <c r="J22">
-        <v>0.4384062497358627</v>
+        <v>3.816482875352165</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>5.136927789884396</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.629325226227877</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,10 +1526,16 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.24411131330135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.95085643057945</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,34 +1543,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2789395817722493</v>
+        <v>0.05826443173685192</v>
       </c>
       <c r="D23">
-        <v>0.06107242272051394</v>
+        <v>0.04891013282767798</v>
       </c>
       <c r="E23">
-        <v>0.1915630462245375</v>
+        <v>0.2343829972218323</v>
       </c>
       <c r="F23">
-        <v>4.837234243618326</v>
+        <v>7.260621500227899</v>
       </c>
       <c r="G23">
-        <v>0.0006945567719793821</v>
+        <v>7.273586686039494</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.06130129177950572</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1331955233507136</v>
       </c>
       <c r="J23">
-        <v>0.420548011384966</v>
+        <v>3.6844794278731</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4.954556956228799</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6058531923383157</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,10 +1579,16 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.60996069977489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.50744471934257</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,34 +1596,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2333224444161885</v>
+        <v>0.04575942820656564</v>
       </c>
       <c r="D24">
-        <v>0.05743395453023226</v>
+        <v>0.04512062582430509</v>
       </c>
       <c r="E24">
-        <v>0.1647142622903388</v>
+        <v>0.2026132502122735</v>
       </c>
       <c r="F24">
-        <v>4.082244417041494</v>
+        <v>6.240045933299513</v>
       </c>
       <c r="G24">
-        <v>0.0007102678340439937</v>
+        <v>6.221027741736009</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.04043978303256957</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.09594535268358939</v>
       </c>
       <c r="J24">
-        <v>0.3555640715133848</v>
+        <v>3.179722158987886</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4.252233634829025</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5181007230678887</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,10 +1632,16 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.2980526166358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>10.82576172529139</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,34 +1649,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1865868093573511</v>
+        <v>0.03399247821437257</v>
       </c>
       <c r="D25">
-        <v>0.05388989332314154</v>
+        <v>0.0412549663409254</v>
       </c>
       <c r="E25">
-        <v>0.1376507044525326</v>
+        <v>0.1695626108072972</v>
       </c>
       <c r="F25">
-        <v>3.316737074165417</v>
+        <v>5.163509800719623</v>
       </c>
       <c r="G25">
-        <v>0.0007274056850127689</v>
+        <v>5.110444772448204</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02249879215999018</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.06220967461291504</v>
       </c>
       <c r="J25">
-        <v>0.2898729745172091</v>
+        <v>2.647387546436221</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3.509794645151885</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4264221469310883</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.9527736942714</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>9.00683856119241</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02530757990358978</v>
+        <v>0.1013322496486495</v>
       </c>
       <c r="D2">
-        <v>0.03849820113431779</v>
+        <v>0.04385360859546594</v>
       </c>
       <c r="E2">
-        <v>0.1457020507759488</v>
+        <v>0.1520754533057804</v>
       </c>
       <c r="F2">
-        <v>4.415016865427958</v>
+        <v>3.48975470717852</v>
       </c>
       <c r="G2">
-        <v>4.341347695604071</v>
+        <v>3.255739232068777</v>
       </c>
       <c r="H2">
-        <v>0.01250025318325193</v>
+        <v>0.008150017017062527</v>
       </c>
       <c r="I2">
-        <v>0.04158091821134402</v>
+        <v>0.02910950984384364</v>
       </c>
       <c r="J2">
-        <v>2.279514476562611</v>
+        <v>1.833454001706258</v>
       </c>
       <c r="K2">
-        <v>3.000884933238893</v>
+        <v>2.117787284351792</v>
       </c>
       <c r="L2">
-        <v>0.3614975481987983</v>
+        <v>0.8840625794258159</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7367237900601253</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3320766605938275</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>7.66312166460591</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>7.663121664602784</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02060394853582892</v>
+        <v>0.08483618310899033</v>
       </c>
       <c r="D3">
-        <v>0.03668126136689542</v>
+        <v>0.04190175895814541</v>
       </c>
       <c r="E3">
-        <v>0.1299481629137915</v>
+        <v>0.1361796396948023</v>
       </c>
       <c r="F3">
-        <v>3.896523577508191</v>
+        <v>3.10709271374833</v>
       </c>
       <c r="G3">
-        <v>3.80634819083528</v>
+        <v>2.875717719611231</v>
       </c>
       <c r="H3">
-        <v>0.007188981325024102</v>
+        <v>0.004541821041675664</v>
       </c>
       <c r="I3">
-        <v>0.02964100696638328</v>
+        <v>0.02133880622985496</v>
       </c>
       <c r="J3">
-        <v>2.023441098358006</v>
+        <v>1.647929195256921</v>
       </c>
       <c r="K3">
-        <v>2.642539970400435</v>
+        <v>1.886913774307104</v>
       </c>
       <c r="L3">
-        <v>0.3177075171422672</v>
+        <v>0.8190620901335137</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6263665676817851</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2938387156069808</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>6.74968365211538</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01795178113028228</v>
+        <v>0.07517618757989908</v>
       </c>
       <c r="D4">
-        <v>0.03557681399424384</v>
+        <v>0.04073715013594992</v>
       </c>
       <c r="E4">
-        <v>0.1203780790145395</v>
+        <v>0.126481262484571</v>
       </c>
       <c r="F4">
-        <v>3.579894877065726</v>
+        <v>2.872226844194699</v>
       </c>
       <c r="G4">
-        <v>3.47947942242007</v>
+        <v>2.642673142457738</v>
       </c>
       <c r="H4">
-        <v>0.004589649495049919</v>
+        <v>0.002798176707416555</v>
       </c>
       <c r="I4">
-        <v>0.02317982290019627</v>
+        <v>0.01707707726765184</v>
       </c>
       <c r="J4">
-        <v>1.867054595346275</v>
+        <v>1.533526031923941</v>
       </c>
       <c r="K4">
-        <v>2.423234304334301</v>
+        <v>1.744616395342376</v>
       </c>
       <c r="L4">
-        <v>0.2910556033688039</v>
+        <v>0.7780040895419233</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5599665476733335</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2704427821803463</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>6.187481969423061</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01703956565341969</v>
+        <v>0.07168814692730052</v>
       </c>
       <c r="D5">
-        <v>0.03513160216918187</v>
+        <v>0.04031089437072843</v>
       </c>
       <c r="E5">
-        <v>0.1165223762366878</v>
+        <v>0.1225687882115949</v>
       </c>
       <c r="F5">
-        <v>3.448187686978571</v>
+        <v>2.774061198117238</v>
       </c>
       <c r="G5">
-        <v>3.343135941555659</v>
+        <v>2.545003119433517</v>
       </c>
       <c r="H5">
-        <v>0.003675535491522997</v>
+        <v>0.002193158114571547</v>
       </c>
       <c r="I5">
-        <v>0.02076134590234346</v>
+        <v>0.01549797089522631</v>
       </c>
       <c r="J5">
-        <v>1.801777461094076</v>
+        <v>1.485379893820863</v>
       </c>
       <c r="K5">
-        <v>2.331037950559434</v>
+        <v>1.684222383084347</v>
       </c>
       <c r="L5">
-        <v>0.2801572479974297</v>
+        <v>0.7600837371190039</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5324301107715428</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2608534276222159</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>5.958052239810286</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0170345327295891</v>
+        <v>0.07153316903797702</v>
       </c>
       <c r="D6">
-        <v>0.03506201433144218</v>
+        <v>0.04029075102227075</v>
       </c>
       <c r="E6">
-        <v>0.1159130126190533</v>
+        <v>0.1219542292244888</v>
       </c>
       <c r="F6">
-        <v>3.422653255605582</v>
+        <v>2.754786897611893</v>
       </c>
       <c r="G6">
-        <v>3.316298892327751</v>
+        <v>2.525460750614599</v>
       </c>
       <c r="H6">
-        <v>0.003524344546298463</v>
+        <v>0.002094169386623213</v>
       </c>
       <c r="I6">
-        <v>0.02040022439214173</v>
+        <v>0.01530185208565715</v>
       </c>
       <c r="J6">
-        <v>1.788854924748421</v>
+        <v>1.47567856670878</v>
       </c>
       <c r="K6">
-        <v>2.312135445703206</v>
+        <v>1.6714372189888</v>
       </c>
       <c r="L6">
-        <v>0.2782490399047077</v>
+        <v>0.7559954149495951</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.526895916945719</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2591788901505723</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>5.919936152110608</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01832844436624725</v>
+        <v>0.07595229908542933</v>
       </c>
       <c r="D7">
-        <v>0.03558145040176885</v>
+        <v>0.04096309257276332</v>
       </c>
       <c r="E7">
-        <v>0.1204071124686479</v>
+        <v>0.1265893376317138</v>
       </c>
       <c r="F7">
-        <v>3.56801197782633</v>
+        <v>2.857816646650633</v>
       </c>
       <c r="G7">
-        <v>3.466074105351197</v>
+        <v>2.639179987286383</v>
       </c>
       <c r="H7">
-        <v>0.004550847496684884</v>
+        <v>0.002766536862230051</v>
       </c>
       <c r="I7">
-        <v>0.02320327611640849</v>
+        <v>0.01717124178693297</v>
       </c>
       <c r="J7">
-        <v>1.860433665788293</v>
+        <v>1.512351223316045</v>
       </c>
       <c r="K7">
-        <v>2.41211224089443</v>
+        <v>1.733027730630141</v>
       </c>
       <c r="L7">
-        <v>0.2906298626361803</v>
+        <v>0.7735093235583719</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5557064739905613</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2699588786652356</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>6.184389112219776</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02414560091630591</v>
+        <v>0.09599303033323281</v>
       </c>
       <c r="D8">
-        <v>0.0378799197230606</v>
+        <v>0.04368278644911072</v>
       </c>
       <c r="E8">
-        <v>0.1403503828431596</v>
+        <v>0.1469307501815855</v>
       </c>
       <c r="F8">
-        <v>4.22221822459332</v>
+        <v>3.330349357050949</v>
       </c>
       <c r="G8">
-        <v>4.140905040596238</v>
+        <v>3.13568468460366</v>
       </c>
       <c r="H8">
-        <v>0.01047111657028033</v>
+        <v>0.006734533400856502</v>
       </c>
       <c r="I8">
-        <v>0.03728065424175941</v>
+        <v>0.02635634112799945</v>
       </c>
       <c r="J8">
-        <v>2.183295917918713</v>
+        <v>1.710539352429691</v>
       </c>
       <c r="K8">
-        <v>2.86384571420497</v>
+        <v>2.017384454574668</v>
       </c>
       <c r="L8">
-        <v>0.3459571773331618</v>
+        <v>0.8538738011746005</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6905964652935097</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3181341774367894</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>7.348453399592813</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03705367405907367</v>
+        <v>0.1385233938188009</v>
       </c>
       <c r="D9">
-        <v>0.04252229390808715</v>
+        <v>0.04873300019259119</v>
       </c>
       <c r="E9">
-        <v>0.1804287422414106</v>
+        <v>0.1870893530649447</v>
       </c>
       <c r="F9">
-        <v>5.542490345405042</v>
+        <v>4.292827859159672</v>
       </c>
       <c r="G9">
-        <v>5.50361742394972</v>
+        <v>4.105834085281344</v>
       </c>
       <c r="H9">
-        <v>0.02812448641569354</v>
+        <v>0.01876662109639327</v>
       </c>
       <c r="I9">
-        <v>0.07289702356458783</v>
+        <v>0.04891193206306088</v>
       </c>
       <c r="J9">
-        <v>2.836145551833113</v>
+        <v>2.161513664449615</v>
       </c>
       <c r="K9">
-        <v>3.776803897848964</v>
+        <v>2.597348757573087</v>
       </c>
       <c r="L9">
-        <v>0.4575455869851623</v>
+        <v>1.012409345472847</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9761695825048093</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4145407070845408</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>9.620230281550789</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0477527941187823</v>
+        <v>0.1687091169513053</v>
       </c>
       <c r="D10">
-        <v>0.04609521475816303</v>
+        <v>0.05214693496295197</v>
       </c>
       <c r="E10">
-        <v>0.2034128747281869</v>
+        <v>0.2096159142273955</v>
       </c>
       <c r="F10">
-        <v>6.458673739517536</v>
+        <v>4.919322469130293</v>
       </c>
       <c r="G10">
-        <v>6.458952079745927</v>
+        <v>4.819976942464791</v>
       </c>
       <c r="H10">
-        <v>0.04502369168383957</v>
+        <v>0.03016602349319975</v>
       </c>
       <c r="I10">
-        <v>0.1046329206364334</v>
+        <v>0.06839184725429526</v>
       </c>
       <c r="J10">
-        <v>3.293234422529565</v>
+        <v>2.375269656267221</v>
       </c>
       <c r="K10">
-        <v>4.415265319017692</v>
+        <v>2.975224185627994</v>
       </c>
       <c r="L10">
-        <v>0.5222851922276703</v>
+        <v>1.106473770451316</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.175167574251091</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4672306702072575</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>11.28258838837513</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04699924791748344</v>
+        <v>0.1575712655404828</v>
       </c>
       <c r="D11">
-        <v>0.0496817202820079</v>
+        <v>0.04586140060670019</v>
       </c>
       <c r="E11">
-        <v>0.1555499217350409</v>
+        <v>0.1574507376225789</v>
       </c>
       <c r="F11">
-        <v>6.273379315620957</v>
+        <v>4.690136228352912</v>
       </c>
       <c r="G11">
-        <v>6.364701322554822</v>
+        <v>4.824402583954111</v>
       </c>
       <c r="H11">
-        <v>0.06447390088488092</v>
+        <v>0.04882325744493698</v>
       </c>
       <c r="I11">
-        <v>0.1123442161461687</v>
+        <v>0.07306675933925977</v>
       </c>
       <c r="J11">
-        <v>3.240513566526602</v>
+        <v>2.133387115918225</v>
       </c>
       <c r="K11">
-        <v>4.362591407360014</v>
+        <v>2.88537020657796</v>
       </c>
       <c r="L11">
-        <v>0.3959579962716191</v>
+        <v>1.05537445453345</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.161197584010395</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3448434153733189</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>12.03742316731751</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04404288028790049</v>
+        <v>0.1419164851733399</v>
       </c>
       <c r="D12">
-        <v>0.05499103712722331</v>
+        <v>0.04199214349085345</v>
       </c>
       <c r="E12">
-        <v>0.1205377615131855</v>
+        <v>0.1184192902238799</v>
       </c>
       <c r="F12">
-        <v>5.940551142647507</v>
+        <v>4.399145217757052</v>
       </c>
       <c r="G12">
-        <v>6.100581416904561</v>
+        <v>4.66347130909395</v>
       </c>
       <c r="H12">
-        <v>0.1012003956198058</v>
+        <v>0.08599733226850503</v>
       </c>
       <c r="I12">
-        <v>0.1119109551104236</v>
+        <v>0.07277892244506923</v>
       </c>
       <c r="J12">
-        <v>3.107674585253676</v>
+        <v>1.954009333673838</v>
       </c>
       <c r="K12">
-        <v>4.198015914455056</v>
+        <v>2.754173151164409</v>
       </c>
       <c r="L12">
-        <v>0.2971044664264966</v>
+        <v>1.001989392430914</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.116142963856674</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2522187668226508</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>12.32306348037548</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03984519814628129</v>
+        <v>0.1244449552979034</v>
       </c>
       <c r="D13">
-        <v>0.06172516534401495</v>
+        <v>0.04033832887197608</v>
       </c>
       <c r="E13">
-        <v>0.09371918966754045</v>
+        <v>0.08774330673576536</v>
       </c>
       <c r="F13">
-        <v>5.462166455346079</v>
+        <v>4.04289423384671</v>
       </c>
       <c r="G13">
-        <v>5.674454649982579</v>
+        <v>4.336113450882976</v>
       </c>
       <c r="H13">
-        <v>0.1526273849750481</v>
+        <v>0.1389001602378528</v>
       </c>
       <c r="I13">
-        <v>0.1051367257848606</v>
+        <v>0.06887645321567337</v>
       </c>
       <c r="J13">
-        <v>2.897495180737451</v>
+        <v>1.833603452485164</v>
       </c>
       <c r="K13">
-        <v>3.923486722282945</v>
+        <v>2.579583612604964</v>
       </c>
       <c r="L13">
-        <v>0.2141186093797103</v>
+        <v>0.9416642422377066</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.04348668867857</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.177339532159472</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>12.26155457991888</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03656835534943248</v>
+        <v>0.1118077457060451</v>
       </c>
       <c r="D14">
-        <v>0.06730994249972611</v>
+        <v>0.04087766038964169</v>
       </c>
       <c r="E14">
-        <v>0.08022330422017188</v>
+        <v>0.07178343855660341</v>
       </c>
       <c r="F14">
-        <v>5.063593282983589</v>
+        <v>3.762821574313676</v>
       </c>
       <c r="G14">
-        <v>5.303764373302158</v>
+        <v>4.034307505020053</v>
       </c>
       <c r="H14">
-        <v>0.1981102915225819</v>
+        <v>0.1857873433324357</v>
       </c>
       <c r="I14">
-        <v>0.09784336930922066</v>
+        <v>0.06469962696243847</v>
       </c>
       <c r="J14">
-        <v>2.715725790333636</v>
+        <v>1.770169662141143</v>
       </c>
       <c r="K14">
-        <v>3.681341100215946</v>
+        <v>2.43578222787022</v>
       </c>
       <c r="L14">
-        <v>0.1666918686180487</v>
+        <v>0.8952611470972869</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.979758990378059</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1360559800902124</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>12.06092695796559</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03549873549395599</v>
+        <v>0.1085275788674238</v>
       </c>
       <c r="D15">
-        <v>0.06845280661974584</v>
+        <v>0.04119055873411348</v>
       </c>
       <c r="E15">
-        <v>0.07736170118855146</v>
+        <v>0.06845355601131331</v>
       </c>
       <c r="F15">
-        <v>4.93294879506891</v>
+        <v>3.676637706134159</v>
       </c>
       <c r="G15">
-        <v>5.175930152408114</v>
+        <v>3.925152073695301</v>
       </c>
       <c r="H15">
-        <v>0.2090622685527848</v>
+        <v>0.1973048833246196</v>
       </c>
       <c r="I15">
-        <v>0.09480245898940609</v>
+        <v>0.06299428010966146</v>
       </c>
       <c r="J15">
-        <v>2.653500472848691</v>
+        <v>1.761313238324249</v>
       </c>
       <c r="K15">
-        <v>3.596103265970982</v>
+        <v>2.388156789536922</v>
       </c>
       <c r="L15">
-        <v>0.1559084850232821</v>
+        <v>0.8810958708851899</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9572140085271172</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1270801013610168</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>11.93801081193845</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0319480173052753</v>
+        <v>0.1026827347384938</v>
       </c>
       <c r="D16">
-        <v>0.06501382298964131</v>
+        <v>0.04055143837950581</v>
       </c>
       <c r="E16">
-        <v>0.07416433884563034</v>
+        <v>0.06634557927907814</v>
       </c>
       <c r="F16">
-        <v>4.646083498739813</v>
+        <v>3.524266716210292</v>
       </c>
       <c r="G16">
-        <v>4.858231236199856</v>
+        <v>3.628542487753123</v>
       </c>
       <c r="H16">
-        <v>0.1900951308769265</v>
+        <v>0.1804694326558973</v>
       </c>
       <c r="I16">
-        <v>0.08265144909680089</v>
+        <v>0.05585243760484193</v>
       </c>
       <c r="J16">
-        <v>2.502571839510608</v>
+        <v>1.818476527999422</v>
       </c>
       <c r="K16">
-        <v>3.38010868385183</v>
+        <v>2.288208735794839</v>
       </c>
       <c r="L16">
-        <v>0.1488499971552919</v>
+        <v>0.8611318916412642</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.8982695977109358</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.123177990598375</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>11.23323027560713</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03095376344455758</v>
+        <v>0.104571562142695</v>
       </c>
       <c r="D17">
-        <v>0.05928009444896531</v>
+        <v>0.03917608684251928</v>
       </c>
       <c r="E17">
-        <v>0.07777104053392669</v>
+        <v>0.07193777772787335</v>
       </c>
       <c r="F17">
-        <v>4.634217950637634</v>
+        <v>3.548331773864504</v>
       </c>
       <c r="G17">
-        <v>4.808561700229404</v>
+        <v>3.568699755180774</v>
       </c>
       <c r="H17">
-        <v>0.1495620955523833</v>
+        <v>0.140817114910277</v>
       </c>
       <c r="I17">
-        <v>0.07718567012547517</v>
+        <v>0.0525463909595274</v>
       </c>
       <c r="J17">
-        <v>2.482022432519102</v>
+        <v>1.877409070274865</v>
       </c>
       <c r="K17">
-        <v>3.341127117933411</v>
+        <v>2.282805100906813</v>
       </c>
       <c r="L17">
-        <v>0.1659959176962644</v>
+        <v>0.8689600697337454</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8846164516614294</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1397454366241746</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>10.80051555282938</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0320847907685895</v>
+        <v>0.1134079421434393</v>
       </c>
       <c r="D18">
-        <v>0.05243220684364047</v>
+        <v>0.03848755394631298</v>
       </c>
       <c r="E18">
-        <v>0.09271026013529138</v>
+        <v>0.08982342450528336</v>
       </c>
       <c r="F18">
-        <v>4.867240381109269</v>
+        <v>3.745955263940743</v>
       </c>
       <c r="G18">
-        <v>4.99327117197555</v>
+        <v>3.697260344364054</v>
       </c>
       <c r="H18">
-        <v>0.09683103892371037</v>
+        <v>0.08804715714042999</v>
       </c>
       <c r="I18">
-        <v>0.07646373668282092</v>
+        <v>0.05192530793010786</v>
       </c>
       <c r="J18">
-        <v>2.575842305475533</v>
+        <v>1.979963426054866</v>
       </c>
       <c r="K18">
-        <v>3.457865405635573</v>
+        <v>2.371614525011552</v>
       </c>
       <c r="L18">
-        <v>0.2165096372171149</v>
+        <v>0.9068822111841683</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9131372766377694</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1864409046398094</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>10.55149949033279</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03579308073810239</v>
+        <v>0.1301652663270687</v>
       </c>
       <c r="D19">
-        <v>0.04688452333308391</v>
+        <v>0.04071966155993856</v>
       </c>
       <c r="E19">
-        <v>0.1235029883777123</v>
+        <v>0.1242258647388503</v>
       </c>
       <c r="F19">
-        <v>5.270442525377348</v>
+        <v>4.064990288002264</v>
       </c>
       <c r="G19">
-        <v>5.337619851611919</v>
+        <v>3.94958852094004</v>
       </c>
       <c r="H19">
-        <v>0.05447948992637208</v>
+        <v>0.04484338976608626</v>
       </c>
       <c r="I19">
-        <v>0.07988839083172472</v>
+        <v>0.05399088353634252</v>
       </c>
       <c r="J19">
-        <v>2.746914553092665</v>
+        <v>2.116597041847996</v>
       </c>
       <c r="K19">
-        <v>3.67653936256545</v>
+        <v>2.521157719019982</v>
       </c>
       <c r="L19">
-        <v>0.3062164097671456</v>
+        <v>0.9631776745690672</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.970087487381619</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2697427864281821</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>10.46716465870099</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04599822056910341</v>
+        <v>0.1655231695905002</v>
       </c>
       <c r="D20">
-        <v>0.04513560542521411</v>
+        <v>0.05127023930034014</v>
       </c>
       <c r="E20">
-        <v>0.1971992113290106</v>
+        <v>0.2033500877278414</v>
       </c>
       <c r="F20">
-        <v>6.1804713164519</v>
+        <v>4.744406576779085</v>
       </c>
       <c r="G20">
-        <v>6.165946316648501</v>
+        <v>4.574716368004601</v>
       </c>
       <c r="H20">
-        <v>0.03994819965780749</v>
+        <v>0.02682915129118468</v>
       </c>
       <c r="I20">
-        <v>0.09563181694525369</v>
+        <v>0.06343011918488539</v>
       </c>
       <c r="J20">
-        <v>3.152380284082199</v>
+        <v>2.361148675488323</v>
       </c>
       <c r="K20">
-        <v>4.212672216933413</v>
+        <v>2.862937232511371</v>
       </c>
       <c r="L20">
-        <v>0.5032859591924108</v>
+        <v>1.077341582147994</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.117180161267669</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4522468988486565</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>10.84659223998074</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05595390939190992</v>
+        <v>0.1868028797091483</v>
       </c>
       <c r="D21">
-        <v>0.04802711130010007</v>
+        <v>0.05804779276721561</v>
       </c>
       <c r="E21">
-        <v>0.2270762032006139</v>
+        <v>0.2348947548063265</v>
       </c>
       <c r="F21">
-        <v>7.003858399109731</v>
+        <v>5.217491716461012</v>
       </c>
       <c r="G21">
-        <v>7.006599877287613</v>
+        <v>5.339139905574257</v>
       </c>
       <c r="H21">
-        <v>0.05596716745827823</v>
+        <v>0.03716732880668605</v>
       </c>
       <c r="I21">
-        <v>0.1239684240400996</v>
+        <v>0.079727750074162</v>
       </c>
       <c r="J21">
-        <v>3.556111394521906</v>
+        <v>2.265013356693657</v>
       </c>
       <c r="K21">
-        <v>4.772466366620364</v>
+        <v>3.133821901427865</v>
       </c>
       <c r="L21">
-        <v>0.584756889723252</v>
+        <v>1.141436245329729</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.264842684454649</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.519390150908535</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>12.11986155709377</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06203734334927447</v>
+        <v>0.1978991862115294</v>
       </c>
       <c r="D22">
-        <v>0.04995155858766953</v>
+        <v>0.06206291069550218</v>
       </c>
       <c r="E22">
-        <v>0.2430053644035901</v>
+        <v>0.2516755054959958</v>
       </c>
       <c r="F22">
-        <v>7.528306382752277</v>
+        <v>5.503670434979085</v>
       </c>
       <c r="G22">
-        <v>7.548982079171992</v>
+        <v>5.848842647548679</v>
       </c>
       <c r="H22">
-        <v>0.06743936639304593</v>
+        <v>0.04447100218418143</v>
       </c>
       <c r="I22">
-        <v>0.1439519507460867</v>
+        <v>0.09085961969885403</v>
       </c>
       <c r="J22">
-        <v>3.816482875352165</v>
+        <v>2.180417446654019</v>
       </c>
       <c r="K22">
-        <v>5.136927789884396</v>
+        <v>3.302591402806627</v>
       </c>
       <c r="L22">
-        <v>0.629325226227877</v>
+        <v>1.179657397271313</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.359421817058902</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5544053209632978</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>12.95085643057945</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05826443173685192</v>
+        <v>0.1913843475017813</v>
       </c>
       <c r="D23">
-        <v>0.04891013282767798</v>
+        <v>0.05937149871657255</v>
       </c>
       <c r="E23">
-        <v>0.2343829972218323</v>
+        <v>0.2423702955460882</v>
       </c>
       <c r="F23">
-        <v>7.260621500227899</v>
+        <v>5.374282397928766</v>
       </c>
       <c r="G23">
-        <v>7.273586686039494</v>
+        <v>5.567561295959422</v>
       </c>
       <c r="H23">
-        <v>0.06130129177950572</v>
+        <v>0.04061886865267716</v>
       </c>
       <c r="I23">
-        <v>0.1331955233507136</v>
+        <v>0.08483621677114517</v>
       </c>
       <c r="J23">
-        <v>3.6844794278731</v>
+        <v>2.269610999374834</v>
       </c>
       <c r="K23">
-        <v>4.954556956228799</v>
+        <v>3.230421685833036</v>
       </c>
       <c r="L23">
-        <v>0.6058531923383157</v>
+        <v>1.165656203170016</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.316054226333179</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5363363090109345</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>12.50744471934257</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04575942820656564</v>
+        <v>0.165132203475153</v>
       </c>
       <c r="D24">
-        <v>0.04512062582430509</v>
+        <v>0.0519015444433677</v>
       </c>
       <c r="E24">
-        <v>0.2026132502122735</v>
+        <v>0.2091184617291155</v>
       </c>
       <c r="F24">
-        <v>6.240045933299513</v>
+        <v>4.792338414063892</v>
       </c>
       <c r="G24">
-        <v>6.221027741736009</v>
+        <v>4.615064999575566</v>
       </c>
       <c r="H24">
-        <v>0.04043978303256957</v>
+        <v>0.02714990174254606</v>
       </c>
       <c r="I24">
-        <v>0.09594535268358939</v>
+        <v>0.06337076847019052</v>
       </c>
       <c r="J24">
-        <v>3.179722158987886</v>
+        <v>2.38503292931955</v>
       </c>
       <c r="K24">
-        <v>4.252233634829025</v>
+        <v>2.891582352023462</v>
       </c>
       <c r="L24">
-        <v>0.5181007230678887</v>
+        <v>1.088221350588597</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.127991014205946</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4661845901409976</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>10.82576172529139</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03399247821437257</v>
+        <v>0.1291803525063528</v>
       </c>
       <c r="D25">
-        <v>0.0412549663409254</v>
+        <v>0.04744849860949785</v>
       </c>
       <c r="E25">
-        <v>0.1695626108072972</v>
+        <v>0.176196022466506</v>
       </c>
       <c r="F25">
-        <v>5.163509800719623</v>
+        <v>4.023917430424547</v>
       </c>
       <c r="G25">
-        <v>5.110444772448204</v>
+        <v>3.815391756494677</v>
       </c>
       <c r="H25">
-        <v>0.02249879215999018</v>
+        <v>0.01495758349406184</v>
       </c>
       <c r="I25">
-        <v>0.06220967461291504</v>
+        <v>0.04245781478814781</v>
       </c>
       <c r="J25">
-        <v>2.647387546436221</v>
+        <v>2.054130681863995</v>
       </c>
       <c r="K25">
-        <v>3.509794645151885</v>
+        <v>2.431488663752361</v>
       </c>
       <c r="L25">
-        <v>0.4264221469310883</v>
+        <v>0.9670652383052527</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8939971826135462</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3880357500079867</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>9.00683856119241</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
